--- a/HV Done.xlsx
+++ b/HV Done.xlsx
@@ -6140,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="H150" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>17</v>
@@ -12465,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="H151" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>17</v>
@@ -12507,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="H152" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>17</v>
@@ -12549,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="H153" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" s="7" t="s">
         <v>17</v>
@@ -12591,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="H154" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>17</v>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160" s="7" t="s">
         <v>17</v>
@@ -12885,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="H161" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>17</v>
@@ -13431,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>17</v>
@@ -13473,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" s="7" t="s">
         <v>17</v>
@@ -13515,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" s="7" t="s">
         <v>17</v>
@@ -13599,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178" s="7" t="s">
         <v>17</v>
@@ -13725,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" s="7" t="s">
         <v>17</v>
@@ -13851,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" s="7" t="s">
         <v>17</v>
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="H185" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" s="7" t="s">
         <v>17</v>
@@ -13977,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="H187" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>17</v>
@@ -14061,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="H189" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I189" s="7" t="s">
         <v>17</v>
@@ -14103,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" s="7" t="s">
         <v>17</v>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="H191" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I191" s="7" t="s">
         <v>17</v>
@@ -14187,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" s="7" t="s">
         <v>17</v>
@@ -14313,7 +14313,7 @@
         <v>1</v>
       </c>
       <c r="H195" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" s="7" t="s">
         <v>17</v>
@@ -15363,7 +15363,7 @@
         <v>1</v>
       </c>
       <c r="H220" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" s="7" t="s">
         <v>17</v>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="H221" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>17</v>
@@ -15447,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="H222" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" s="7" t="s">
         <v>17</v>
@@ -15699,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="H228" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" s="7" t="s">
         <v>17</v>
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="H229" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" s="7" t="s">
         <v>17</v>
@@ -15783,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="H230" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" s="7" t="s">
         <v>17</v>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="H231" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" s="7" t="s">
         <v>17</v>
@@ -15867,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="H232" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" s="7" t="s">
         <v>17</v>
@@ -16077,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="H237" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" s="7" t="s">
         <v>17</v>
@@ -16119,7 +16119,7 @@
         <v>1</v>
       </c>
       <c r="H238" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" s="7" t="s">
         <v>17</v>
@@ -16161,7 +16161,7 @@
         <v>1</v>
       </c>
       <c r="H239" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" s="11" t="s">
         <v>17</v>

--- a/HV Done.xlsx
+++ b/HV Done.xlsx
@@ -6140,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7503,7 +7503,7 @@
         <v>55</v>
       </c>
       <c r="F33" s="3">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -7511,8 +7511,8 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>31</v>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>18</v>
@@ -7545,7 +7545,7 @@
         <v>55</v>
       </c>
       <c r="F34" s="7">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>18</v>
@@ -7587,7 +7587,7 @@
         <v>55</v>
       </c>
       <c r="F35" s="7">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
@@ -7596,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>18</v>
@@ -7629,7 +7629,7 @@
         <v>55</v>
       </c>
       <c r="F36" s="7">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>18</v>
@@ -7671,7 +7671,7 @@
         <v>55</v>
       </c>
       <c r="F37" s="7">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -7680,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>18</v>
@@ -7713,7 +7713,7 @@
         <v>55</v>
       </c>
       <c r="F38" s="7">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="G38" s="7">
         <v>1</v>
@@ -7755,7 +7755,7 @@
         <v>55</v>
       </c>
       <c r="F39" s="7">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="G39" s="7">
         <v>1</v>
@@ -7797,7 +7797,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="7">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -7839,7 +7839,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="7">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -7881,7 +7881,7 @@
         <v>55</v>
       </c>
       <c r="F42" s="7">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
@@ -8133,7 +8133,7 @@
         <v>55</v>
       </c>
       <c r="F48" s="3">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -8141,8 +8141,8 @@
       <c r="H48" s="3">
         <v>1</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>31</v>
+      <c r="I48" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>18</v>
@@ -8175,7 +8175,7 @@
         <v>55</v>
       </c>
       <c r="F49" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
@@ -8184,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>18</v>
@@ -8217,7 +8217,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G50" s="7">
         <v>1</v>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>18</v>
@@ -8259,7 +8259,7 @@
         <v>55</v>
       </c>
       <c r="F51" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>18</v>
@@ -8301,7 +8301,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>18</v>
@@ -8343,7 +8343,7 @@
         <v>55</v>
       </c>
       <c r="F53" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>18</v>
@@ -8385,7 +8385,7 @@
         <v>55</v>
       </c>
       <c r="F54" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>18</v>
@@ -9225,7 +9225,7 @@
         <v>55</v>
       </c>
       <c r="F74" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G74" s="7">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>18</v>
@@ -9267,7 +9267,7 @@
         <v>55</v>
       </c>
       <c r="F75" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G75" s="7">
         <v>1</v>
@@ -9276,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>18</v>
@@ -9309,7 +9309,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G76" s="7">
         <v>1</v>
@@ -9318,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>18</v>
@@ -9351,7 +9351,7 @@
         <v>55</v>
       </c>
       <c r="F77" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>18</v>
@@ -9393,7 +9393,7 @@
         <v>55</v>
       </c>
       <c r="F78" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>18</v>
@@ -9561,7 +9561,7 @@
         <v>55</v>
       </c>
       <c r="F82" s="3">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -9603,7 +9603,7 @@
         <v>55</v>
       </c>
       <c r="F83" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G83" s="7">
         <v>1</v>
@@ -9645,7 +9645,7 @@
         <v>55</v>
       </c>
       <c r="F84" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
@@ -9687,7 +9687,7 @@
         <v>55</v>
       </c>
       <c r="F85" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -9729,7 +9729,7 @@
         <v>55</v>
       </c>
       <c r="F86" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G86" s="7">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>55</v>
       </c>
       <c r="F87" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G87" s="7">
         <v>1</v>
@@ -9897,7 +9897,7 @@
         <v>55</v>
       </c>
       <c r="F90" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G90" s="7">
         <v>1</v>
@@ -9906,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>18</v>
@@ -9939,7 +9939,7 @@
         <v>55</v>
       </c>
       <c r="F91" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G91" s="7">
         <v>1</v>
@@ -9948,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>18</v>
@@ -9981,7 +9981,7 @@
         <v>55</v>
       </c>
       <c r="F92" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G92" s="7">
         <v>1</v>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>18</v>
@@ -10023,7 +10023,7 @@
         <v>55</v>
       </c>
       <c r="F93" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G93" s="7">
         <v>1</v>
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>18</v>
@@ -10065,7 +10065,7 @@
         <v>55</v>
       </c>
       <c r="F94" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G94" s="7">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>18</v>
@@ -10233,7 +10233,7 @@
         <v>55</v>
       </c>
       <c r="F98" s="3">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -10241,8 +10241,8 @@
       <c r="H98" s="3">
         <v>1</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>31</v>
+      <c r="I98" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>18</v>
@@ -10275,7 +10275,7 @@
         <v>55</v>
       </c>
       <c r="F99" s="7">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G99" s="7">
         <v>1</v>
@@ -10284,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>18</v>
@@ -10317,7 +10317,7 @@
         <v>55</v>
       </c>
       <c r="F100" s="7">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G100" s="7">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>18</v>
@@ -10359,7 +10359,7 @@
         <v>55</v>
       </c>
       <c r="F101" s="7">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G101" s="7">
         <v>1</v>
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>18</v>
@@ -10401,7 +10401,7 @@
         <v>55</v>
       </c>
       <c r="F102" s="7">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G102" s="7">
         <v>1</v>
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>18</v>
@@ -10443,7 +10443,7 @@
         <v>55</v>
       </c>
       <c r="F103" s="7">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
@@ -10452,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>18</v>
@@ -10737,7 +10737,7 @@
         <v>55</v>
       </c>
       <c r="F110" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G110" s="7">
         <v>1</v>
@@ -10779,7 +10779,7 @@
         <v>55</v>
       </c>
       <c r="F111" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G111" s="7">
         <v>1</v>
@@ -10821,7 +10821,7 @@
         <v>55</v>
       </c>
       <c r="F112" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G112" s="7">
         <v>1</v>
@@ -10863,7 +10863,7 @@
         <v>55</v>
       </c>
       <c r="F113" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G113" s="7">
         <v>1</v>
@@ -10905,7 +10905,7 @@
         <v>55</v>
       </c>
       <c r="F114" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G114" s="7">
         <v>1</v>
@@ -10946,8 +10946,8 @@
       <c r="E115" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F115" s="11">
-        <v>1011</v>
+      <c r="F115" s="7">
+        <v>1004</v>
       </c>
       <c r="G115" s="11">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         <v>55</v>
       </c>
       <c r="F116" s="3">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -10997,8 +10997,8 @@
       <c r="H116" s="3">
         <v>1</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>31</v>
+      <c r="I116" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>18</v>
@@ -11031,7 +11031,7 @@
         <v>55</v>
       </c>
       <c r="F117" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G117" s="7">
         <v>1</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>18</v>
@@ -11073,7 +11073,7 @@
         <v>55</v>
       </c>
       <c r="F118" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G118" s="7">
         <v>1</v>
@@ -11082,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>18</v>
@@ -11115,7 +11115,7 @@
         <v>55</v>
       </c>
       <c r="F119" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G119" s="7">
         <v>1</v>
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>18</v>
@@ -11157,7 +11157,7 @@
         <v>55</v>
       </c>
       <c r="F120" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G120" s="7">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>18</v>
@@ -11619,7 +11619,7 @@
         <v>55</v>
       </c>
       <c r="F131" s="3">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
@@ -11627,8 +11627,8 @@
       <c r="H131" s="3">
         <v>1</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>31</v>
+      <c r="I131" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>18</v>
@@ -11661,7 +11661,7 @@
         <v>55</v>
       </c>
       <c r="F132" s="7">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G132" s="7">
         <v>1</v>
@@ -11670,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>18</v>
@@ -11703,7 +11703,7 @@
         <v>55</v>
       </c>
       <c r="F133" s="7">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G133" s="7">
         <v>1</v>
@@ -11712,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>18</v>
@@ -11745,7 +11745,7 @@
         <v>55</v>
       </c>
       <c r="F134" s="7">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G134" s="7">
         <v>1</v>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>18</v>
@@ -11787,7 +11787,7 @@
         <v>55</v>
       </c>
       <c r="F135" s="7">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G135" s="7">
         <v>1</v>
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>18</v>
